--- a/BOP_realistic_instance_v2.xlsx
+++ b/BOP_realistic_instance_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emapi\PycharmProjects\wm-bilevel-opt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD42750F-F447-4EC9-8482-4E26D0E2AA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C54D33-EC0B-447A-BC40-1D68B8F8583E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="152">
   <si>
     <t>index</t>
   </si>
@@ -59,6 +59,378 @@
     <t>demand_daily</t>
   </si>
   <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t>ALATRI</t>
+  </si>
+  <si>
+    <t>41.72647125</t>
+  </si>
+  <si>
+    <t>13.34210735</t>
+  </si>
+  <si>
+    <t>SORA</t>
+  </si>
+  <si>
+    <t>41.72008003</t>
+  </si>
+  <si>
+    <t>13.61362757</t>
+  </si>
+  <si>
+    <t>CECCANO</t>
+  </si>
+  <si>
+    <t>41.56856480</t>
+  </si>
+  <si>
+    <t>13.33363716</t>
+  </si>
+  <si>
+    <t>ANAGNI</t>
+  </si>
+  <si>
+    <t>41.74393633</t>
+  </si>
+  <si>
+    <t>13.15452041</t>
+  </si>
+  <si>
+    <t>FERENTINO</t>
+  </si>
+  <si>
+    <t>41.69231575</t>
+  </si>
+  <si>
+    <t>13.25284809</t>
+  </si>
+  <si>
+    <t>TERRACINA</t>
+  </si>
+  <si>
+    <t>41.29189727</t>
+  </si>
+  <si>
+    <t>13.24878732</t>
+  </si>
+  <si>
+    <t>FONDI</t>
+  </si>
+  <si>
+    <t>41.35691056</t>
+  </si>
+  <si>
+    <t>13.42990802</t>
+  </si>
+  <si>
+    <t>FORMIA</t>
+  </si>
+  <si>
+    <t>41.25568883</t>
+  </si>
+  <si>
+    <t>13.60592654</t>
+  </si>
+  <si>
+    <t>GAETA</t>
+  </si>
+  <si>
+    <t>41.21336432</t>
+  </si>
+  <si>
+    <t>13.57195666</t>
+  </si>
+  <si>
+    <t>SABAUDIA</t>
+  </si>
+  <si>
+    <t>41.30012397</t>
+  </si>
+  <si>
+    <t>13.02490624</t>
+  </si>
+  <si>
+    <t>RIETI</t>
+  </si>
+  <si>
+    <t>42.40488444</t>
+  </si>
+  <si>
+    <t>12.86205941</t>
+  </si>
+  <si>
+    <t>FARAINSABINA</t>
+  </si>
+  <si>
+    <t>42.20952713</t>
+  </si>
+  <si>
+    <t>12.72925133</t>
+  </si>
+  <si>
+    <t>TIVOLI</t>
+  </si>
+  <si>
+    <t>41.96349840</t>
+  </si>
+  <si>
+    <t>12.79846907</t>
+  </si>
+  <si>
+    <t>VELLETRI</t>
+  </si>
+  <si>
+    <t>41.68638171</t>
+  </si>
+  <si>
+    <t>12.77719681</t>
+  </si>
+  <si>
+    <t>ANZIO</t>
+  </si>
+  <si>
+    <t>41.44805488</t>
+  </si>
+  <si>
+    <t>12.62871796</t>
+  </si>
+  <si>
+    <t>CIVITAVECCHIA</t>
+  </si>
+  <si>
+    <t>42.09212993</t>
+  </si>
+  <si>
+    <t>11.79337907</t>
+  </si>
+  <si>
+    <t>NETTUNO</t>
+  </si>
+  <si>
+    <t>41.45748878</t>
+  </si>
+  <si>
+    <t>12.66141549</t>
+  </si>
+  <si>
+    <t>ALBANOLAZIALE</t>
+  </si>
+  <si>
+    <t>41.72911179</t>
+  </si>
+  <si>
+    <t>12.65870332</t>
+  </si>
+  <si>
+    <t>CIAMPINO</t>
+  </si>
+  <si>
+    <t>41.80288346</t>
+  </si>
+  <si>
+    <t>12.60168888</t>
+  </si>
+  <si>
+    <t>CERVETERI</t>
+  </si>
+  <si>
+    <t>41.99824253</t>
+  </si>
+  <si>
+    <t>12.09896835</t>
+  </si>
+  <si>
+    <t>FRASCATI</t>
+  </si>
+  <si>
+    <t>41.80598978</t>
+  </si>
+  <si>
+    <t>12.68079241</t>
+  </si>
+  <si>
+    <t>PALESTRINA</t>
+  </si>
+  <si>
+    <t>41.83942538</t>
+  </si>
+  <si>
+    <t>12.88915634</t>
+  </si>
+  <si>
+    <t>COLLEFERRO</t>
+  </si>
+  <si>
+    <t>41.73041246</t>
+  </si>
+  <si>
+    <t>13.00559155</t>
+  </si>
+  <si>
+    <t>BRACCIANO</t>
+  </si>
+  <si>
+    <t>42.10335079</t>
+  </si>
+  <si>
+    <t>12.17562398</t>
+  </si>
+  <si>
+    <t>SANTAMARINELLA</t>
+  </si>
+  <si>
+    <t>42.03356550</t>
+  </si>
+  <si>
+    <t>11.85414402</t>
+  </si>
+  <si>
+    <t>ROCCADIPAPA</t>
+  </si>
+  <si>
+    <t>41.76199841</t>
+  </si>
+  <si>
+    <t>12.70842384</t>
+  </si>
+  <si>
+    <t>VALMONTONE</t>
+  </si>
+  <si>
+    <t>41.77688498</t>
+  </si>
+  <si>
+    <t>12.91774603</t>
+  </si>
+  <si>
+    <t>TARQUINIA</t>
+  </si>
+  <si>
+    <t>42.25445005</t>
+  </si>
+  <si>
+    <t>11.75823363</t>
+  </si>
+  <si>
+    <t>MONTEFIASCONE</t>
+  </si>
+  <si>
+    <t>42.53761440</t>
+  </si>
+  <si>
+    <t>12.03036871</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>capacity_daily</t>
+  </si>
+  <si>
+    <t>fraction_cap</t>
+  </si>
+  <si>
+    <t>fraction_cap_daily S</t>
+  </si>
+  <si>
+    <t>fraction_cap_daily M</t>
+  </si>
+  <si>
+    <t>fraction_cap_daily L</t>
+  </si>
+  <si>
+    <t>Sacite Tempesta Fulvio</t>
+  </si>
+  <si>
+    <t>42.38645944142392</t>
+  </si>
+  <si>
+    <t>facility</t>
+  </si>
+  <si>
+    <t>Sabina conglomerati</t>
+  </si>
+  <si>
+    <t>SQL SRL</t>
+  </si>
+  <si>
+    <t>42.43935663701068</t>
+  </si>
+  <si>
+    <t>Tuscia Ambiente SRL</t>
+  </si>
+  <si>
+    <t>Marcopolo Engineering Spa Sistemi Ecologici</t>
+  </si>
+  <si>
+    <t>Reno De Medici SPA</t>
+  </si>
+  <si>
+    <t>Itelyum Regeneration SPA</t>
+  </si>
+  <si>
+    <t>Acea Ambiente SPA</t>
+  </si>
+  <si>
+    <t>Indinvest</t>
+  </si>
+  <si>
+    <t>DMG Recuperi SRL</t>
+  </si>
+  <si>
+    <t>MAF Servizi</t>
+  </si>
+  <si>
+    <t>Buzzi Unciem SPA</t>
+  </si>
+  <si>
+    <t>Italcementi SPA</t>
+  </si>
+  <si>
+    <t>Innocenti SRL</t>
+  </si>
+  <si>
+    <t>Granulati Montefalcone SRL</t>
+  </si>
+  <si>
+    <t>CIVITACASTELLANA</t>
+  </si>
+  <si>
+    <t>42.28917672</t>
+  </si>
+  <si>
+    <t>12.41176641</t>
+  </si>
+  <si>
+    <t>ISOLADELLIRI</t>
+  </si>
+  <si>
+    <t>41.67841900</t>
+  </si>
+  <si>
+    <t>13.57497154</t>
+  </si>
+  <si>
+    <t>MONTEROTONDO</t>
+  </si>
+  <si>
+    <t>42.05132067</t>
+  </si>
+  <si>
+    <t>12.61624809</t>
+  </si>
+  <si>
+    <t>VITERBO</t>
+  </si>
+  <si>
+    <t>42.41738279</t>
+  </si>
+  <si>
+    <t>12.10473417</t>
+  </si>
+  <si>
     <t>FROSINONE</t>
   </si>
   <si>
@@ -68,81 +440,6 @@
     <t>13.35117166</t>
   </si>
   <si>
-    <t>client</t>
-  </si>
-  <si>
-    <t>CASSINO</t>
-  </si>
-  <si>
-    <t>41.49267611</t>
-  </si>
-  <si>
-    <t>13.83012821</t>
-  </si>
-  <si>
-    <t>ALATRI</t>
-  </si>
-  <si>
-    <t>41.72647125</t>
-  </si>
-  <si>
-    <t>13.34210735</t>
-  </si>
-  <si>
-    <t>SORA</t>
-  </si>
-  <si>
-    <t>41.72008003</t>
-  </si>
-  <si>
-    <t>13.61362757</t>
-  </si>
-  <si>
-    <t>CECCANO</t>
-  </si>
-  <si>
-    <t>41.56856480</t>
-  </si>
-  <si>
-    <t>13.33363716</t>
-  </si>
-  <si>
-    <t>ANAGNI</t>
-  </si>
-  <si>
-    <t>41.74393633</t>
-  </si>
-  <si>
-    <t>13.15452041</t>
-  </si>
-  <si>
-    <t>FERENTINO</t>
-  </si>
-  <si>
-    <t>41.69231575</t>
-  </si>
-  <si>
-    <t>13.25284809</t>
-  </si>
-  <si>
-    <t>VEROLI</t>
-  </si>
-  <si>
-    <t>41.69100425</t>
-  </si>
-  <si>
-    <t>13.41787776</t>
-  </si>
-  <si>
-    <t>PONTECORVO</t>
-  </si>
-  <si>
-    <t>41.45740222</t>
-  </si>
-  <si>
-    <t>13.66537138</t>
-  </si>
-  <si>
     <t>LATINA</t>
   </si>
   <si>
@@ -161,69 +458,6 @@
     <t>12.64816922</t>
   </si>
   <si>
-    <t>TERRACINA</t>
-  </si>
-  <si>
-    <t>41.29189727</t>
-  </si>
-  <si>
-    <t>13.24878732</t>
-  </si>
-  <si>
-    <t>FONDI</t>
-  </si>
-  <si>
-    <t>41.35691056</t>
-  </si>
-  <si>
-    <t>13.42990802</t>
-  </si>
-  <si>
-    <t>FORMIA</t>
-  </si>
-  <si>
-    <t>41.25568883</t>
-  </si>
-  <si>
-    <t>13.60592654</t>
-  </si>
-  <si>
-    <t>GAETA</t>
-  </si>
-  <si>
-    <t>41.21336432</t>
-  </si>
-  <si>
-    <t>13.57195666</t>
-  </si>
-  <si>
-    <t>SABAUDIA</t>
-  </si>
-  <si>
-    <t>41.30012397</t>
-  </si>
-  <si>
-    <t>13.02490624</t>
-  </si>
-  <si>
-    <t>RIETI</t>
-  </si>
-  <si>
-    <t>42.40488444</t>
-  </si>
-  <si>
-    <t>12.86205941</t>
-  </si>
-  <si>
-    <t>FARAINSABINA</t>
-  </si>
-  <si>
-    <t>42.20952713</t>
-  </si>
-  <si>
-    <t>12.72925133</t>
-  </si>
-  <si>
     <t>CITTADUCALE</t>
   </si>
   <si>
@@ -251,337 +485,13 @@
     <t>12.50163468</t>
   </si>
   <si>
-    <t>TIVOLI</t>
-  </si>
-  <si>
-    <t>41.96349840</t>
-  </si>
-  <si>
-    <t>12.79846907</t>
-  </si>
-  <si>
-    <t>VELLETRI</t>
-  </si>
-  <si>
-    <t>41.68638171</t>
-  </si>
-  <si>
-    <t>12.77719681</t>
-  </si>
-  <si>
-    <t>ANZIO</t>
-  </si>
-  <si>
-    <t>41.44805488</t>
-  </si>
-  <si>
-    <t>12.62871796</t>
-  </si>
-  <si>
-    <t>CIVITAVECCHIA</t>
-  </si>
-  <si>
-    <t>42.09212993</t>
-  </si>
-  <si>
-    <t>11.79337907</t>
-  </si>
-  <si>
-    <t>ARDEA</t>
-  </si>
-  <si>
-    <t>41.60929055</t>
-  </si>
-  <si>
-    <t>12.54537478</t>
-  </si>
-  <si>
-    <t>NETTUNO</t>
-  </si>
-  <si>
-    <t>41.45748878</t>
-  </si>
-  <si>
-    <t>12.66141549</t>
-  </si>
-  <si>
-    <t>MARINO</t>
-  </si>
-  <si>
-    <t>41.76970177</t>
-  </si>
-  <si>
-    <t>12.65860986</t>
-  </si>
-  <si>
-    <t>LADISPOLI</t>
-  </si>
-  <si>
-    <t>41.95487983</t>
-  </si>
-  <si>
-    <t>12.06998590</t>
-  </si>
-  <si>
-    <t>ALBANOLAZIALE</t>
-  </si>
-  <si>
-    <t>41.72911179</t>
-  </si>
-  <si>
-    <t>12.65870332</t>
-  </si>
-  <si>
-    <t>CIAMPINO</t>
-  </si>
-  <si>
-    <t>41.80288346</t>
-  </si>
-  <si>
-    <t>12.60168888</t>
-  </si>
-  <si>
-    <t>CERVETERI</t>
-  </si>
-  <si>
-    <t>41.99824253</t>
-  </si>
-  <si>
-    <t>12.09896835</t>
-  </si>
-  <si>
-    <t>FONTENUOVA</t>
-  </si>
-  <si>
-    <t>41.99627325</t>
-  </si>
-  <si>
-    <t>12.61887253</t>
-  </si>
-  <si>
-    <t>GENZANODIROMA</t>
-  </si>
-  <si>
-    <t>41.70690415</t>
-  </si>
-  <si>
-    <t>12.69132211</t>
-  </si>
-  <si>
-    <t>FRASCATI</t>
-  </si>
-  <si>
-    <t>41.80598978</t>
-  </si>
-  <si>
-    <t>12.68079241</t>
-  </si>
-  <si>
-    <t>PALESTRINA</t>
-  </si>
-  <si>
-    <t>41.83942538</t>
-  </si>
-  <si>
-    <t>12.88915634</t>
-  </si>
-  <si>
-    <t>COLLEFERRO</t>
-  </si>
-  <si>
-    <t>41.73041246</t>
-  </si>
-  <si>
-    <t>13.00559155</t>
-  </si>
-  <si>
-    <t>ANGUILLARASABAZIA</t>
-  </si>
-  <si>
-    <t>42.09291489</t>
-  </si>
-  <si>
-    <t>12.26978922</t>
-  </si>
-  <si>
-    <t>BRACCIANO</t>
-  </si>
-  <si>
-    <t>42.10335079</t>
-  </si>
-  <si>
-    <t>12.17562398</t>
-  </si>
-  <si>
-    <t>ARICCIA</t>
-  </si>
-  <si>
-    <t>41.72002036</t>
-  </si>
-  <si>
-    <t>12.67058132</t>
-  </si>
-  <si>
-    <t>SANTAMARINELLA</t>
-  </si>
-  <si>
-    <t>42.03356550</t>
-  </si>
-  <si>
-    <t>11.85414402</t>
-  </si>
-  <si>
-    <t>ZAGAROLO</t>
-  </si>
-  <si>
-    <t>41.83986542</t>
-  </si>
-  <si>
-    <t>12.82963823</t>
-  </si>
-  <si>
-    <t>ROCCADIPAPA</t>
-  </si>
-  <si>
-    <t>41.76199841</t>
-  </si>
-  <si>
-    <t>12.70842384</t>
-  </si>
-  <si>
-    <t>SANCESAREO</t>
-  </si>
-  <si>
-    <t>41.82146590</t>
-  </si>
-  <si>
-    <t>12.80070668</t>
-  </si>
-  <si>
-    <t>FIANOROMANO</t>
-  </si>
-  <si>
-    <t>42.17200417</t>
-  </si>
-  <si>
-    <t>12.59244302</t>
-  </si>
-  <si>
-    <t>VALMONTONE</t>
-  </si>
-  <si>
-    <t>41.77688498</t>
-  </si>
-  <si>
-    <t>12.91774603</t>
-  </si>
-  <si>
-    <t>VITERBO</t>
-  </si>
-  <si>
-    <t>42.41738279</t>
-  </si>
-  <si>
-    <t>12.10473417</t>
-  </si>
-  <si>
-    <t>TARQUINIA</t>
-  </si>
-  <si>
-    <t>42.25445005</t>
-  </si>
-  <si>
-    <t>11.75823363</t>
-  </si>
-  <si>
-    <t>VETRALLA</t>
-  </si>
-  <si>
-    <t>42.32081893</t>
-  </si>
-  <si>
-    <t>12.05352034</t>
-  </si>
-  <si>
-    <t>MONTEFIASCONE</t>
-  </si>
-  <si>
-    <t>42.53761440</t>
-  </si>
-  <si>
-    <t>12.03036871</t>
-  </si>
-  <si>
-    <t>capacity</t>
-  </si>
-  <si>
-    <t>capacity_daily</t>
-  </si>
-  <si>
-    <t>fraction_cap</t>
-  </si>
-  <si>
-    <t>fraction_cap_daily S</t>
-  </si>
-  <si>
-    <t>fraction_cap_daily M</t>
-  </si>
-  <si>
-    <t>fraction_cap_daily L</t>
-  </si>
-  <si>
-    <t>Sacite Tempesta Fulvio</t>
-  </si>
-  <si>
-    <t>42.38645944142392</t>
-  </si>
-  <si>
-    <t>facility</t>
-  </si>
-  <si>
-    <t>Sabina conglomerati</t>
-  </si>
-  <si>
-    <t>SQL SRL</t>
-  </si>
-  <si>
-    <t>42.43935663701068</t>
-  </si>
-  <si>
-    <t>Tuscia Ambiente SRL</t>
-  </si>
-  <si>
-    <t>Marcopolo Engineering Spa Sistemi Ecologici</t>
-  </si>
-  <si>
-    <t>Reno De Medici SPA</t>
-  </si>
-  <si>
-    <t>Itelyum Regeneration SPA</t>
-  </si>
-  <si>
-    <t>Acea Ambiente SPA</t>
-  </si>
-  <si>
-    <t>Indinvest</t>
-  </si>
-  <si>
-    <t>DMG Recuperi SRL</t>
-  </si>
-  <si>
-    <t>MAF Servizi</t>
-  </si>
-  <si>
-    <t>Buzzi Unciem SPA</t>
-  </si>
-  <si>
-    <t>Italcementi SPA</t>
-  </si>
-  <si>
-    <t>Innocenti SRL</t>
-  </si>
-  <si>
-    <t>Granulati Montefalcone SRL</t>
+    <t>FORMELLO</t>
+  </si>
+  <si>
+    <t>42.08022139</t>
+  </si>
+  <si>
+    <t>12.40084704</t>
   </si>
 </sst>
 </file>
@@ -944,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A51"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -983,22 +893,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>132</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1">
         <v>4384.26</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" ref="G2:G26" si="0">F2/365</f>
+        <f t="shared" ref="G2" si="0">F2/365</f>
         <v>12.011671232876713</v>
       </c>
     </row>
@@ -1007,23 +917,23 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1">
-        <v>3089.45</v>
+        <v>1359.03</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" si="0"/>
-        <v>8.4642465753424645</v>
+        <f t="shared" ref="G3:G24" si="1">F3/365</f>
+        <v>3.7233698630136987</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1031,23 +941,23 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1">
-        <v>1359.03</v>
+        <v>1405.49</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="0"/>
-        <v>3.7233698630136987</v>
+        <f t="shared" si="1"/>
+        <v>3.8506575342465754</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1055,23 +965,23 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1">
-        <v>1405.49</v>
+        <v>1011.1</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="0"/>
-        <v>3.8506575342465754</v>
+        <f t="shared" si="1"/>
+        <v>2.7701369863013698</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1079,23 +989,23 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F6" s="1">
-        <v>1011.1</v>
+        <v>1152.24</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="0"/>
-        <v>2.7701369863013698</v>
+        <f t="shared" si="1"/>
+        <v>3.1568219178082191</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1103,23 +1013,23 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F7" s="1">
-        <v>1152.24</v>
+        <v>987.03</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="0"/>
-        <v>3.1568219178082191</v>
+        <f t="shared" si="1"/>
+        <v>2.7041917808219176</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1127,23 +1037,23 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F8" s="1">
-        <v>987.03</v>
+        <v>571.1</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="0"/>
-        <v>2.7041917808219176</v>
+        <f t="shared" si="1"/>
+        <v>1.5646575342465754</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1151,23 +1061,23 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F9" s="1">
-        <v>690.64</v>
+        <v>3778.48</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="0"/>
-        <v>1.8921643835616437</v>
+        <f t="shared" si="1"/>
+        <v>10.352</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1175,23 +1085,23 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F10" s="1">
-        <v>57.68</v>
+        <v>3363.89</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.15802739726027398</v>
+        <f t="shared" si="1"/>
+        <v>9.21613698630137</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1199,23 +1109,23 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F11" s="1">
-        <v>3778.48</v>
+        <v>2406.2800000000002</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="0"/>
-        <v>10.352</v>
+        <f t="shared" si="1"/>
+        <v>6.5925479452054798</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1223,23 +1133,23 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F12" s="1">
-        <v>3363.89</v>
+        <v>2180.5</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="0"/>
-        <v>9.21613698630137</v>
+        <f t="shared" si="1"/>
+        <v>5.9739726027397264</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1247,23 +1157,23 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F13" s="1">
-        <v>2406.2800000000002</v>
+        <v>2088.7849999999999</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="0"/>
-        <v>6.5925479452054798</v>
+        <f t="shared" si="1"/>
+        <v>5.7226986301369855</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1271,23 +1181,23 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F14" s="1">
-        <v>2180.5</v>
+        <v>1067.5899999999999</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="0"/>
-        <v>5.9739726027397264</v>
+        <f t="shared" si="1"/>
+        <v>2.9249041095890407</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1295,23 +1205,23 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F15" s="1">
-        <v>2088.7849999999999</v>
+        <v>1152.18</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="0"/>
-        <v>5.7226986301369855</v>
+        <f t="shared" si="1"/>
+        <v>3.1566575342465755</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1319,23 +1229,23 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F16" s="1">
-        <v>1067.5899999999999</v>
+        <v>2190.92</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="0"/>
-        <v>2.9249041095890407</v>
+        <f t="shared" si="1"/>
+        <v>6.0025205479452053</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1343,23 +1253,23 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F17" s="1">
-        <v>1152.18</v>
+        <v>515.29999999999995</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="0"/>
-        <v>3.1566575342465755</v>
+        <f t="shared" si="1"/>
+        <v>1.4117808219178081</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1367,23 +1277,23 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F18" s="1">
-        <v>2190.92</v>
+        <v>323.40499999999997</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="0"/>
-        <v>6.0025205479452053</v>
+        <f t="shared" si="1"/>
+        <v>0.88604109589041091</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1391,23 +1301,23 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F19" s="1">
-        <v>515.29999999999995</v>
+        <v>3851.34</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="0"/>
-        <v>1.4117808219178081</v>
+        <f t="shared" si="1"/>
+        <v>10.551616438356165</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1415,23 +1325,23 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>62</v>
+        <v>146</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F20" s="1">
-        <v>323.40499999999997</v>
+        <v>3328.14</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="0"/>
-        <v>0.88604109589041091</v>
+        <f t="shared" si="1"/>
+        <v>9.1181917808219168</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1439,23 +1349,23 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F21" s="1">
-        <v>3851.34</v>
+        <v>2733.72</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="0"/>
-        <v>10.551616438356165</v>
+        <f t="shared" si="1"/>
+        <v>7.4896438356164374</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1463,23 +1373,23 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F22" s="1">
-        <v>3328.14</v>
+        <v>2308</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="0"/>
-        <v>9.1181917808219168</v>
+        <f t="shared" si="1"/>
+        <v>6.3232876712328769</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1487,23 +1397,23 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F23" s="1">
-        <v>2733.72</v>
+        <v>1834.26</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="0"/>
-        <v>7.4896438356164374</v>
+        <f t="shared" si="1"/>
+        <v>5.0253698630136983</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1511,23 +1421,23 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F24" s="1">
-        <v>2308</v>
+        <v>1997.41</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="0"/>
-        <v>6.3232876712328769</v>
+        <f t="shared" si="1"/>
+        <v>5.4723561643835614</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1535,23 +1445,23 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F25" s="1">
-        <v>1834.26</v>
+        <v>1877.94</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="0"/>
-        <v>5.0253698630136983</v>
+        <f t="shared" ref="G25:G39" si="2">F25/365</f>
+        <v>5.1450410958904111</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1559,23 +1469,23 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F26" s="1">
-        <v>1997.41</v>
+        <v>1927.48</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="0"/>
-        <v>5.4723561643835614</v>
+        <f t="shared" si="2"/>
+        <v>5.2807671232876716</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1583,23 +1493,23 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F27" s="1">
-        <v>1248.82</v>
+        <v>2110.52</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" ref="G27:G49" si="1">F27/365</f>
-        <v>3.4214246575342462</v>
+        <f t="shared" si="2"/>
+        <v>5.7822465753424659</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1607,23 +1517,23 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F28" s="1">
-        <v>1877.94</v>
+        <v>1417.12</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="1"/>
-        <v>5.1450410958904111</v>
+        <f t="shared" si="2"/>
+        <v>3.8825205479452052</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1631,23 +1541,23 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F29" s="1">
-        <v>1697.51</v>
+        <v>920.1</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="1"/>
-        <v>4.6507123287671233</v>
+        <f t="shared" si="2"/>
+        <v>2.5208219178082194</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1655,23 +1565,23 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F30" s="1">
-        <v>1869.2</v>
+        <v>1004.773</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="1"/>
-        <v>5.1210958904109587</v>
+        <f t="shared" si="2"/>
+        <v>2.7528027397260275</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1679,23 +1589,23 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F31" s="1">
-        <v>1927.48</v>
+        <v>961.93</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="1"/>
-        <v>5.2807671232876716</v>
+        <f t="shared" si="2"/>
+        <v>2.6354246575342466</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1703,47 +1613,47 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F32" s="1">
-        <v>2110.52</v>
+        <v>786.52</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" si="1"/>
-        <v>5.7822465753424659</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>2.1548493150684931</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F33" s="1">
-        <v>1417.12</v>
+        <v>1721.84</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="1"/>
-        <v>3.8825205479452052</v>
+        <f t="shared" si="2"/>
+        <v>4.7173698630136984</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1751,23 +1661,23 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F34" s="1">
-        <v>1248.7</v>
+        <v>734.87</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" si="1"/>
-        <v>3.421095890410959</v>
+        <f t="shared" si="2"/>
+        <v>2.0133424657534245</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1775,23 +1685,23 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F35" s="1">
-        <v>1132.1500000000001</v>
+        <v>657.22</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="1"/>
-        <v>3.1017808219178087</v>
+        <f t="shared" si="2"/>
+        <v>1.8006027397260276</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1799,23 +1709,23 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F36" s="1">
-        <v>920.1</v>
+        <v>799.77</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="1"/>
-        <v>2.5208219178082194</v>
+        <f t="shared" si="2"/>
+        <v>2.191150684931507</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1823,23 +1733,23 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F37" s="1">
-        <v>1004.773</v>
+        <v>771.66</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="1"/>
-        <v>2.7528027397260275</v>
+        <f t="shared" si="2"/>
+        <v>2.1141369863013697</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1847,23 +1757,23 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F38" s="1">
-        <v>961.93</v>
+        <v>3351.0940000000001</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="1"/>
-        <v>2.6354246575342466</v>
+        <f t="shared" si="2"/>
+        <v>9.181079452054794</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1871,23 +1781,23 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F39" s="1">
-        <v>914.57</v>
+        <v>697.58</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" si="1"/>
-        <v>2.5056712328767126</v>
+        <f t="shared" si="2"/>
+        <v>1.911178082191781</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1895,23 +1805,23 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F40" s="1">
-        <v>786.52</v>
+        <v>654.94100000000003</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" si="1"/>
-        <v>2.1548493150684931</v>
+        <f t="shared" ref="G40:G41" si="3">F40/365</f>
+        <v>1.7943589041095891</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1919,267 +1829,30 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F41" s="1">
-        <v>1105.1610000000001</v>
+        <v>802.6</v>
       </c>
       <c r="G41" s="1">
-        <f t="shared" si="1"/>
-        <v>3.0278383561643838</v>
+        <f t="shared" si="3"/>
+        <v>2.1989041095890411</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="1">
-        <v>734.87</v>
-      </c>
-      <c r="G42" s="1">
-        <f t="shared" si="1"/>
-        <v>2.0133424657534245</v>
-      </c>
+      <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="1">
-        <v>563.04999999999995</v>
-      </c>
-      <c r="G43" s="1">
-        <f t="shared" si="1"/>
-        <v>1.5426027397260273</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="1">
-        <v>657.22</v>
-      </c>
-      <c r="G44" s="1">
-        <f t="shared" si="1"/>
-        <v>1.8006027397260276</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="1">
-        <v>809.52</v>
-      </c>
-      <c r="G45" s="1">
-        <f t="shared" si="1"/>
-        <v>2.2178630136986301</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="1">
-        <v>989.18</v>
-      </c>
-      <c r="G46" s="1">
-        <f t="shared" si="1"/>
-        <v>2.7100821917808218</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" s="1">
-        <v>771.66</v>
-      </c>
-      <c r="G47" s="1">
-        <f t="shared" si="1"/>
-        <v>2.1141369863013697</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" s="1">
-        <v>3351.0940000000001</v>
-      </c>
-      <c r="G48" s="1">
-        <f t="shared" si="1"/>
-        <v>9.181079452054794</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" s="1">
-        <v>697.58</v>
-      </c>
-      <c r="G49" s="1">
-        <f t="shared" si="1"/>
-        <v>1.911178082191781</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="1">
-        <v>440.95</v>
-      </c>
-      <c r="G50" s="1">
-        <f t="shared" ref="G50:G51" si="2">F50/365</f>
-        <v>1.208082191780822</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" s="1">
-        <v>654.94100000000003</v>
-      </c>
-      <c r="G51" s="1">
-        <f t="shared" si="2"/>
-        <v>1.7943589041095891</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G53" s="1"/>
+      <c r="G43" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -2224,22 +1897,22 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>163</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -2247,16 +1920,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>164</v>
+        <v>101</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>165</v>
+        <v>102</v>
       </c>
       <c r="D2" s="2">
         <v>12.922217881817399</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="F2" s="2">
         <v>11150</v>
@@ -2287,7 +1960,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2">
         <v>42.283295916639297</v>
@@ -2296,7 +1969,7 @@
         <v>12.695945426878801</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="F3" s="2">
         <v>15000</v>
@@ -2327,16 +2000,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="D4" s="2">
         <v>12.9082165464113</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="F4" s="2">
         <v>70000</v>
@@ -2367,7 +2040,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="C5" s="2">
         <v>42.397642263188402</v>
@@ -2376,7 +2049,7 @@
         <v>11.8408068846551</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="F5" s="2">
         <v>60000</v>
@@ -2407,7 +2080,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2">
         <v>42.448120903040703</v>
@@ -2416,7 +2089,7 @@
         <v>12.0024883</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="F6" s="2">
         <v>5710</v>
@@ -2447,7 +2120,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>172</v>
+        <v>109</v>
       </c>
       <c r="C7" s="2">
         <v>41.495822511495298</v>
@@ -2456,7 +2129,7 @@
         <v>13.789110857936601</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="F7" s="2">
         <v>51000</v>
@@ -2487,7 +2160,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="C8" s="2">
         <v>41.625439286466502</v>
@@ -2496,7 +2169,7 @@
         <v>13.3100665080014</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="F8" s="2">
         <v>84000</v>
@@ -2527,7 +2200,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>174</v>
+        <v>111</v>
       </c>
       <c r="C9" s="2">
         <v>41.603282123827398</v>
@@ -2536,7 +2209,7 @@
         <v>12.636303926379901</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="F9" s="2">
         <v>95000</v>
@@ -2567,7 +2240,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>175</v>
+        <v>112</v>
       </c>
       <c r="C10" s="2">
         <v>41.555953049321303</v>
@@ -2576,7 +2249,7 @@
         <v>12.8633925115926</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="F10" s="2">
         <v>45000</v>
@@ -2607,7 +2280,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>176</v>
+        <v>113</v>
       </c>
       <c r="C11" s="2">
         <v>41.371738721695998</v>
@@ -2616,7 +2289,7 @@
         <v>13.4060411912864</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="F11" s="2">
         <v>6000</v>
@@ -2647,7 +2320,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>177</v>
+        <v>114</v>
       </c>
       <c r="C12" s="2">
         <v>41.284352370515499</v>
@@ -2656,7 +2329,7 @@
         <v>13.7231196399479</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="F12" s="2">
         <v>93000</v>
@@ -2687,7 +2360,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>178</v>
+        <v>115</v>
       </c>
       <c r="C13" s="2">
         <v>42.0183364074013</v>
@@ -2696,7 +2369,7 @@
         <v>12.714176392130099</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="F13" s="2">
         <v>78500</v>
@@ -2727,7 +2400,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>179</v>
+        <v>116</v>
       </c>
       <c r="C14" s="2">
         <v>41.736147206591198</v>
@@ -2736,7 +2409,7 @@
         <v>13.005815882292101</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="F14" s="2">
         <v>96000</v>
@@ -2767,7 +2440,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="C15" s="2">
         <v>41.956947941722603</v>
@@ -2776,7 +2449,7 @@
         <v>12.764914105843699</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="F15" s="2">
         <v>100000</v>
@@ -2807,7 +2480,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="C16" s="2">
         <v>41.850101048687101</v>
@@ -2816,7 +2489,7 @@
         <v>12.7356816688051</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="F16" s="2">
         <v>100000</v>

--- a/BOP_realistic_instance_v2.xlsx
+++ b/BOP_realistic_instance_v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emapi\PycharmProjects\wm-bilevel-opt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C54D33-EC0B-447A-BC40-1D68B8F8583E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5469139C-5198-489E-BE6A-67D74FACD9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="147">
   <si>
     <t>index</t>
   </si>
@@ -56,9 +56,6 @@
     <t>demand</t>
   </si>
   <si>
-    <t>demand_daily</t>
-  </si>
-  <si>
     <t>client</t>
   </si>
   <si>
@@ -362,24 +359,15 @@
     <t>Tuscia Ambiente SRL</t>
   </si>
   <si>
-    <t>Marcopolo Engineering Spa Sistemi Ecologici</t>
-  </si>
-  <si>
     <t>Reno De Medici SPA</t>
   </si>
   <si>
     <t>Itelyum Regeneration SPA</t>
   </si>
   <si>
-    <t>Acea Ambiente SPA</t>
-  </si>
-  <si>
     <t>Indinvest</t>
   </si>
   <si>
-    <t>DMG Recuperi SRL</t>
-  </si>
-  <si>
     <t>MAF Servizi</t>
   </si>
   <si>
@@ -389,12 +377,6 @@
     <t>Italcementi SPA</t>
   </si>
   <si>
-    <t>Innocenti SRL</t>
-  </si>
-  <si>
-    <t>Granulati Montefalcone SRL</t>
-  </si>
-  <si>
     <t>CIVITACASTELLANA</t>
   </si>
   <si>
@@ -492,6 +474,9 @@
   </si>
   <si>
     <t>12.40084704</t>
+  </si>
+  <si>
+    <t>demand_weekly</t>
   </si>
 </sst>
 </file>
@@ -542,7 +527,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -558,7 +543,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -856,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A41"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -885,7 +870,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -893,22 +878,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1">
         <v>4384.26</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" ref="G2" si="0">F2/365</f>
+        <f>F2/365</f>
         <v>12.011671232876713</v>
       </c>
     </row>
@@ -917,22 +902,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1">
         <v>1359.03</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G24" si="1">F3/365</f>
+        <f t="shared" ref="G3:G41" si="0">F3/365</f>
         <v>3.7233698630136987</v>
       </c>
     </row>
@@ -941,22 +926,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="1">
         <v>1405.49</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.8506575342465754</v>
       </c>
     </row>
@@ -965,22 +950,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" s="1">
         <v>1011.1</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.7701369863013698</v>
       </c>
     </row>
@@ -989,22 +974,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="1">
         <v>1152.24</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.1568219178082191</v>
       </c>
     </row>
@@ -1013,22 +998,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="1">
         <v>987.03</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.7041917808219176</v>
       </c>
     </row>
@@ -1037,22 +1022,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" s="1">
         <v>571.1</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.5646575342465754</v>
       </c>
     </row>
@@ -1061,22 +1046,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" s="1">
         <v>3778.48</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10.352</v>
       </c>
     </row>
@@ -1085,22 +1070,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" s="1">
         <v>3363.89</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.21613698630137</v>
       </c>
     </row>
@@ -1109,22 +1094,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" s="1">
         <v>2406.2800000000002</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.5925479452054798</v>
       </c>
     </row>
@@ -1133,22 +1118,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12" s="1">
         <v>2180.5</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.9739726027397264</v>
       </c>
     </row>
@@ -1157,22 +1142,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13" s="1">
         <v>2088.7849999999999</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.7226986301369855</v>
       </c>
     </row>
@@ -1181,22 +1166,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F14" s="1">
         <v>1067.5899999999999</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.9249041095890407</v>
       </c>
     </row>
@@ -1205,22 +1190,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" s="1">
         <v>1152.18</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.1566575342465755</v>
       </c>
     </row>
@@ -1229,22 +1214,22 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" s="1">
         <v>2190.92</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.0025205479452053</v>
       </c>
     </row>
@@ -1253,22 +1238,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" s="1">
         <v>515.29999999999995</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.4117808219178081</v>
       </c>
     </row>
@@ -1277,22 +1262,22 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F18" s="1">
         <v>323.40499999999997</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.88604109589041091</v>
       </c>
     </row>
@@ -1301,22 +1286,22 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F19" s="1">
         <v>3851.34</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10.551616438356165</v>
       </c>
     </row>
@@ -1325,22 +1310,22 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F20" s="1">
         <v>3328.14</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.1181917808219168</v>
       </c>
     </row>
@@ -1349,22 +1334,22 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F21" s="1">
         <v>2733.72</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.4896438356164374</v>
       </c>
     </row>
@@ -1373,22 +1358,22 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F22" s="1">
         <v>2308</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.3232876712328769</v>
       </c>
     </row>
@@ -1397,22 +1382,22 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F23" s="1">
         <v>1834.26</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.0253698630136983</v>
       </c>
     </row>
@@ -1421,22 +1406,22 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F24" s="1">
         <v>1997.41</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.4723561643835614</v>
       </c>
     </row>
@@ -1445,22 +1430,22 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F25" s="1">
         <v>1877.94</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" ref="G25:G39" si="2">F25/365</f>
+        <f t="shared" si="0"/>
         <v>5.1450410958904111</v>
       </c>
     </row>
@@ -1469,22 +1454,22 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="E26" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F26" s="1">
         <v>1927.48</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>5.2807671232876716</v>
       </c>
     </row>
@@ -1493,22 +1478,22 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F27" s="1">
         <v>2110.52</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>5.7822465753424659</v>
       </c>
     </row>
@@ -1517,22 +1502,22 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="E28" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F28" s="1">
         <v>1417.12</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>3.8825205479452052</v>
       </c>
     </row>
@@ -1541,22 +1526,22 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F29" s="1">
         <v>920.1</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2.5208219178082194</v>
       </c>
     </row>
@@ -1565,22 +1550,22 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="E30" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F30" s="1">
         <v>1004.773</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2.7528027397260275</v>
       </c>
     </row>
@@ -1589,22 +1574,22 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="E31" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F31" s="1">
         <v>961.93</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2.6354246575342466</v>
       </c>
     </row>
@@ -1613,22 +1598,22 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="E32" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F32" s="1">
         <v>786.52</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2.1548493150684931</v>
       </c>
     </row>
@@ -1637,22 +1622,22 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F33" s="1">
         <v>1721.84</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>4.7173698630136984</v>
       </c>
     </row>
@@ -1661,22 +1646,22 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="E34" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F34" s="1">
         <v>734.87</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2.0133424657534245</v>
       </c>
     </row>
@@ -1685,22 +1670,22 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="E35" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F35" s="1">
         <v>657.22</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1.8006027397260276</v>
       </c>
     </row>
@@ -1709,22 +1694,22 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F36" s="1">
         <v>799.77</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2.191150684931507</v>
       </c>
     </row>
@@ -1733,22 +1718,22 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F37" s="1">
         <v>771.66</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2.1141369863013697</v>
       </c>
     </row>
@@ -1757,22 +1742,22 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F38" s="1">
         <v>3351.0940000000001</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>9.181079452054794</v>
       </c>
     </row>
@@ -1781,22 +1766,22 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="E39" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F39" s="1">
         <v>697.58</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1.911178082191781</v>
       </c>
     </row>
@@ -1805,22 +1790,22 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="E40" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F40" s="1">
         <v>654.94100000000003</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" ref="G40:G41" si="3">F40/365</f>
+        <f t="shared" si="0"/>
         <v>1.7943589041095891</v>
       </c>
     </row>
@@ -1829,22 +1814,22 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F41" s="1">
         <v>802.6</v>
       </c>
       <c r="G41" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2.1989041095890411</v>
       </c>
     </row>
@@ -1866,14 +1851,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="42.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="9" max="9" width="19.6640625" customWidth="1"/>
     <col min="10" max="10" width="20.33203125" customWidth="1"/>
@@ -1897,22 +1883,22 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -1920,39 +1906,39 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="D2" s="2">
         <v>12.922217881817399</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F2" s="2">
         <v>11150</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" ref="G2:G16" si="0">F2/365</f>
+        <f t="shared" ref="G2:G11" si="0">F2/365</f>
         <v>30.547945205479451</v>
       </c>
       <c r="H2" s="1">
-        <f>F2/3</f>
-        <v>3716.6666666666665</v>
+        <f>F2/5</f>
+        <v>2230</v>
       </c>
       <c r="I2" s="1">
-        <f t="shared" ref="I2:I16" si="1">J2*0.7</f>
-        <v>7.1278538812785381</v>
+        <f t="shared" ref="I2:I11" si="1">J2*0.7</f>
+        <v>4.2767123287671236</v>
       </c>
       <c r="J2" s="1">
-        <f t="shared" ref="J2:J16" si="2">H2/365</f>
-        <v>10.182648401826484</v>
+        <f>H2/365</f>
+        <v>6.1095890410958908</v>
       </c>
       <c r="K2" s="1">
-        <f t="shared" ref="K2:K16" si="3">J2*1.3</f>
-        <v>13.237442922374429</v>
+        <f t="shared" ref="K2:K11" si="2">J2*1.3</f>
+        <v>7.9424657534246581</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -1960,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2">
         <v>42.283295916639297</v>
@@ -1969,7 +1955,7 @@
         <v>12.695945426878801</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F3" s="2">
         <v>15000</v>
@@ -1979,20 +1965,20 @@
         <v>41.095890410958901</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H16" si="4">F3/3</f>
-        <v>5000</v>
+        <f t="shared" ref="H3:H11" si="3">F3/5</f>
+        <v>3000</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" si="1"/>
-        <v>9.5890410958904102</v>
+        <v>5.7534246575342465</v>
       </c>
       <c r="J3" s="1">
+        <f t="shared" ref="J3:J11" si="4">H3/365</f>
+        <v>8.2191780821917817</v>
+      </c>
+      <c r="K3" s="1">
         <f t="shared" si="2"/>
-        <v>13.698630136986301</v>
-      </c>
-      <c r="K3" s="1">
-        <f t="shared" si="3"/>
-        <v>17.808219178082194</v>
+        <v>10.684931506849317</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -2000,16 +1986,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="D4" s="2">
         <v>12.9082165464113</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F4" s="2">
         <v>70000</v>
@@ -2019,20 +2005,20 @@
         <v>191.78082191780823</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" si="4"/>
-        <v>23333.333333333332</v>
+        <f t="shared" si="3"/>
+        <v>14000</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="1"/>
-        <v>44.74885844748858</v>
+        <v>26.849315068493148</v>
       </c>
       <c r="J4" s="1">
+        <f t="shared" si="4"/>
+        <v>38.356164383561641</v>
+      </c>
+      <c r="K4" s="1">
         <f t="shared" si="2"/>
-        <v>63.926940639269404</v>
-      </c>
-      <c r="K4" s="1">
-        <f t="shared" si="3"/>
-        <v>83.105022831050235</v>
+        <v>49.863013698630134</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -2040,7 +2026,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2">
         <v>42.397642263188402</v>
@@ -2049,7 +2035,7 @@
         <v>11.8408068846551</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F5" s="2">
         <v>60000</v>
@@ -2059,20 +2045,20 @@
         <v>164.38356164383561</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="4"/>
-        <v>20000</v>
+        <f t="shared" si="3"/>
+        <v>12000</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="1"/>
-        <v>38.356164383561641</v>
+        <v>23.013698630136986</v>
       </c>
       <c r="J5" s="1">
+        <f t="shared" si="4"/>
+        <v>32.876712328767127</v>
+      </c>
+      <c r="K5" s="1">
         <f t="shared" si="2"/>
-        <v>54.794520547945204</v>
-      </c>
-      <c r="K5" s="1">
-        <f t="shared" si="3"/>
-        <v>71.232876712328775</v>
+        <v>42.739726027397268</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -2080,39 +2066,39 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2">
-        <v>42.448120903040703</v>
+        <v>41.495822511495298</v>
       </c>
       <c r="D6" s="2">
-        <v>12.0024883</v>
+        <v>13.789110857936601</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F6" s="2">
-        <v>5710</v>
+        <v>51000</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="0"/>
-        <v>15.643835616438356</v>
+        <v>139.72602739726028</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="4"/>
-        <v>1903.3333333333333</v>
+        <f t="shared" si="3"/>
+        <v>10200</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="1"/>
-        <v>3.6502283105022828</v>
+        <v>19.561643835616437</v>
       </c>
       <c r="J6" s="1">
+        <f t="shared" si="4"/>
+        <v>27.945205479452056</v>
+      </c>
+      <c r="K6" s="1">
         <f t="shared" si="2"/>
-        <v>5.2146118721461185</v>
-      </c>
-      <c r="K6" s="1">
-        <f t="shared" si="3"/>
-        <v>6.7789954337899543</v>
+        <v>36.328767123287676</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -2120,39 +2106,39 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" s="2">
-        <v>41.495822511495298</v>
+        <v>41.625439286466502</v>
       </c>
       <c r="D7" s="2">
-        <v>13.789110857936601</v>
+        <v>13.3100665080014</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F7" s="2">
-        <v>51000</v>
+        <v>84000</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>139.72602739726028</v>
+        <v>230.13698630136986</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="4"/>
-        <v>17000</v>
+        <f t="shared" si="3"/>
+        <v>16800</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="1"/>
-        <v>32.602739726027394</v>
+        <v>32.219178082191782</v>
       </c>
       <c r="J7" s="1">
+        <f t="shared" si="4"/>
+        <v>46.027397260273972</v>
+      </c>
+      <c r="K7" s="1">
         <f t="shared" si="2"/>
-        <v>46.575342465753423</v>
-      </c>
-      <c r="K7" s="1">
-        <f t="shared" si="3"/>
-        <v>60.547945205479451</v>
+        <v>59.835616438356162</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -2160,39 +2146,39 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C8" s="2">
-        <v>41.625439286466502</v>
+        <v>41.555953049321303</v>
       </c>
       <c r="D8" s="2">
-        <v>13.3100665080014</v>
+        <v>12.8633925115926</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F8" s="2">
-        <v>84000</v>
+        <v>45000</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="0"/>
-        <v>230.13698630136986</v>
+        <v>123.28767123287672</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="4"/>
-        <v>28000</v>
+        <f t="shared" si="3"/>
+        <v>9000</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="1"/>
-        <v>53.698630136986296</v>
+        <v>17.260273972602739</v>
       </c>
       <c r="J8" s="1">
+        <f t="shared" si="4"/>
+        <v>24.657534246575342</v>
+      </c>
+      <c r="K8" s="1">
         <f t="shared" si="2"/>
-        <v>76.712328767123282</v>
-      </c>
-      <c r="K8" s="1">
-        <f t="shared" si="3"/>
-        <v>99.726027397260268</v>
+        <v>32.054794520547944</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -2200,39 +2186,39 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C9" s="2">
-        <v>41.603282123827398</v>
+        <v>41.284352370515499</v>
       </c>
       <c r="D9" s="2">
-        <v>12.636303926379901</v>
+        <v>13.7231196399479</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F9" s="2">
-        <v>95000</v>
+        <v>93000</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="0"/>
-        <v>260.27397260273972</v>
+        <v>254.79452054794521</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="4"/>
-        <v>31666.666666666668</v>
+        <f t="shared" si="3"/>
+        <v>18600</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="1"/>
-        <v>60.730593607305927</v>
+        <v>35.671232876712324</v>
       </c>
       <c r="J9" s="1">
+        <f t="shared" si="4"/>
+        <v>50.958904109589042</v>
+      </c>
+      <c r="K9" s="1">
         <f t="shared" si="2"/>
-        <v>86.757990867579906</v>
-      </c>
-      <c r="K9" s="1">
-        <f t="shared" si="3"/>
-        <v>112.78538812785388</v>
+        <v>66.246575342465761</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -2240,39 +2226,39 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C10" s="2">
-        <v>41.555953049321303</v>
+        <v>42.0183364074013</v>
       </c>
       <c r="D10" s="2">
-        <v>12.8633925115926</v>
+        <v>12.714176392130099</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F10" s="2">
-        <v>45000</v>
+        <v>78500</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="0"/>
-        <v>123.28767123287672</v>
+        <v>215.06849315068493</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="4"/>
-        <v>15000</v>
+        <f t="shared" si="3"/>
+        <v>15700</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="1"/>
-        <v>28.767123287671229</v>
+        <v>30.109589041095887</v>
       </c>
       <c r="J10" s="1">
+        <f t="shared" si="4"/>
+        <v>43.013698630136986</v>
+      </c>
+      <c r="K10" s="1">
         <f t="shared" si="2"/>
-        <v>41.095890410958901</v>
-      </c>
-      <c r="K10" s="1">
-        <f t="shared" si="3"/>
-        <v>53.42465753424657</v>
+        <v>55.917808219178085</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -2280,239 +2266,39 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C11" s="2">
-        <v>41.371738721695998</v>
+        <v>41.736147206591198</v>
       </c>
       <c r="D11" s="2">
-        <v>13.4060411912864</v>
+        <v>13.005815882292101</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F11" s="2">
-        <v>6000</v>
+        <v>96000</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="0"/>
-        <v>16.438356164383563</v>
+        <v>263.01369863013701</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="4"/>
-        <v>2000</v>
+        <f t="shared" si="3"/>
+        <v>19200</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="1"/>
-        <v>3.8356164383561637</v>
+        <v>36.821917808219176</v>
       </c>
       <c r="J11" s="1">
+        <f t="shared" si="4"/>
+        <v>52.602739726027394</v>
+      </c>
+      <c r="K11" s="1">
         <f t="shared" si="2"/>
-        <v>5.4794520547945202</v>
-      </c>
-      <c r="K11" s="1">
-        <f t="shared" si="3"/>
-        <v>7.1232876712328768</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="2">
-        <v>41.284352370515499</v>
-      </c>
-      <c r="D12" s="2">
-        <v>13.7231196399479</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F12" s="2">
-        <v>93000</v>
-      </c>
-      <c r="G12" s="1">
-        <f t="shared" si="0"/>
-        <v>254.79452054794521</v>
-      </c>
-      <c r="H12" s="1">
-        <f t="shared" si="4"/>
-        <v>31000</v>
-      </c>
-      <c r="I12" s="1">
-        <f t="shared" si="1"/>
-        <v>59.452054794520542</v>
-      </c>
-      <c r="J12" s="1">
-        <f t="shared" si="2"/>
-        <v>84.93150684931507</v>
-      </c>
-      <c r="K12" s="1">
-        <f t="shared" si="3"/>
-        <v>110.41095890410959</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="2">
-        <v>42.0183364074013</v>
-      </c>
-      <c r="D13" s="2">
-        <v>12.714176392130099</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="2">
-        <v>78500</v>
-      </c>
-      <c r="G13" s="1">
-        <f t="shared" si="0"/>
-        <v>215.06849315068493</v>
-      </c>
-      <c r="H13" s="1">
-        <f t="shared" si="4"/>
-        <v>26166.666666666668</v>
-      </c>
-      <c r="I13" s="1">
-        <f t="shared" si="1"/>
-        <v>50.182648401826484</v>
-      </c>
-      <c r="J13" s="1">
-        <f t="shared" si="2"/>
-        <v>71.689497716894977</v>
-      </c>
-      <c r="K13" s="1">
-        <f t="shared" si="3"/>
-        <v>93.196347031963469</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="2">
-        <v>41.736147206591198</v>
-      </c>
-      <c r="D14" s="2">
-        <v>13.005815882292101</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F14" s="2">
-        <v>96000</v>
-      </c>
-      <c r="G14" s="1">
-        <f t="shared" si="0"/>
-        <v>263.01369863013701</v>
-      </c>
-      <c r="H14" s="1">
-        <f t="shared" si="4"/>
-        <v>32000</v>
-      </c>
-      <c r="I14" s="1">
-        <f t="shared" si="1"/>
-        <v>61.36986301369862</v>
-      </c>
-      <c r="J14" s="1">
-        <f t="shared" si="2"/>
-        <v>87.671232876712324</v>
-      </c>
-      <c r="K14" s="1">
-        <f t="shared" si="3"/>
-        <v>113.97260273972603</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="2">
-        <v>41.956947941722603</v>
-      </c>
-      <c r="D15" s="2">
-        <v>12.764914105843699</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F15" s="2">
-        <v>100000</v>
-      </c>
-      <c r="G15" s="1">
-        <f t="shared" si="0"/>
-        <v>273.97260273972603</v>
-      </c>
-      <c r="H15" s="1">
-        <f t="shared" si="4"/>
-        <v>33333.333333333336</v>
-      </c>
-      <c r="I15" s="1">
-        <f t="shared" si="1"/>
-        <v>63.926940639269404</v>
-      </c>
-      <c r="J15" s="1">
-        <f t="shared" si="2"/>
-        <v>91.324200913242009</v>
-      </c>
-      <c r="K15" s="1">
-        <f t="shared" si="3"/>
-        <v>118.72146118721462</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="2">
-        <v>41.850101048687101</v>
-      </c>
-      <c r="D16" s="2">
-        <v>12.7356816688051</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F16" s="2">
-        <v>100000</v>
-      </c>
-      <c r="G16" s="1">
-        <f t="shared" si="0"/>
-        <v>273.97260273972603</v>
-      </c>
-      <c r="H16" s="1">
-        <f t="shared" si="4"/>
-        <v>33333.333333333336</v>
-      </c>
-      <c r="I16" s="1">
-        <f t="shared" si="1"/>
-        <v>63.926940639269404</v>
-      </c>
-      <c r="J16" s="1">
-        <f t="shared" si="2"/>
-        <v>91.324200913242009</v>
-      </c>
-      <c r="K16" s="1">
-        <f t="shared" si="3"/>
-        <v>118.72146118721462</v>
+        <v>68.38356164383562</v>
       </c>
     </row>
   </sheetData>

--- a/BOP_realistic_instance_v2.xlsx
+++ b/BOP_realistic_instance_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emapi\PycharmProjects\wm-bilevel-opt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5469139C-5198-489E-BE6A-67D74FACD9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8417B9FF-E0EA-45B1-BBFF-5C2245891EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="client" sheetId="1" r:id="rId1"/>
@@ -841,7 +841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
@@ -1853,8 +1853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1925,20 +1925,20 @@
         <v>30.547945205479451</v>
       </c>
       <c r="H2" s="1">
-        <f>F2/5</f>
-        <v>2230</v>
+        <f>F2/3</f>
+        <v>3716.6666666666665</v>
       </c>
       <c r="I2" s="1">
         <f t="shared" ref="I2:I11" si="1">J2*0.7</f>
-        <v>4.2767123287671236</v>
+        <v>7.1278538812785381</v>
       </c>
       <c r="J2" s="1">
         <f>H2/365</f>
-        <v>6.1095890410958908</v>
+        <v>10.182648401826484</v>
       </c>
       <c r="K2" s="1">
         <f t="shared" ref="K2:K11" si="2">J2*1.3</f>
-        <v>7.9424657534246581</v>
+        <v>13.237442922374429</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -1965,20 +1965,20 @@
         <v>41.095890410958901</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H11" si="3">F3/5</f>
-        <v>3000</v>
+        <f t="shared" ref="H3:H11" si="3">F3/3</f>
+        <v>5000</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" si="1"/>
-        <v>5.7534246575342465</v>
+        <v>9.5890410958904102</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" ref="J3:J11" si="4">H3/365</f>
-        <v>8.2191780821917817</v>
+        <v>13.698630136986301</v>
       </c>
       <c r="K3" s="1">
         <f t="shared" si="2"/>
-        <v>10.684931506849317</v>
+        <v>17.808219178082194</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -2006,19 +2006,19 @@
       </c>
       <c r="H4" s="1">
         <f t="shared" si="3"/>
-        <v>14000</v>
+        <v>23333.333333333332</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="1"/>
-        <v>26.849315068493148</v>
+        <v>44.74885844748858</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="4"/>
-        <v>38.356164383561641</v>
+        <v>63.926940639269404</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" si="2"/>
-        <v>49.863013698630134</v>
+        <v>83.105022831050235</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="H5" s="1">
         <f t="shared" si="3"/>
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="1"/>
-        <v>23.013698630136986</v>
+        <v>38.356164383561641</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="4"/>
-        <v>32.876712328767127</v>
+        <v>54.794520547945204</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="2"/>
-        <v>42.739726027397268</v>
+        <v>71.232876712328775</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -2086,19 +2086,19 @@
       </c>
       <c r="H6" s="1">
         <f t="shared" si="3"/>
-        <v>10200</v>
+        <v>17000</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="1"/>
-        <v>19.561643835616437</v>
+        <v>32.602739726027394</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="4"/>
-        <v>27.945205479452056</v>
+        <v>46.575342465753423</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="2"/>
-        <v>36.328767123287676</v>
+        <v>60.547945205479451</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -2126,19 +2126,19 @@
       </c>
       <c r="H7" s="1">
         <f t="shared" si="3"/>
-        <v>16800</v>
+        <v>28000</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="1"/>
-        <v>32.219178082191782</v>
+        <v>53.698630136986296</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="4"/>
-        <v>46.027397260273972</v>
+        <v>76.712328767123282</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="2"/>
-        <v>59.835616438356162</v>
+        <v>99.726027397260268</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -2166,19 +2166,19 @@
       </c>
       <c r="H8" s="1">
         <f t="shared" si="3"/>
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="1"/>
-        <v>17.260273972602739</v>
+        <v>28.767123287671229</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="4"/>
-        <v>24.657534246575342</v>
+        <v>41.095890410958901</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="2"/>
-        <v>32.054794520547944</v>
+        <v>53.42465753424657</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -2206,19 +2206,19 @@
       </c>
       <c r="H9" s="1">
         <f t="shared" si="3"/>
-        <v>18600</v>
+        <v>31000</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="1"/>
-        <v>35.671232876712324</v>
+        <v>59.452054794520542</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="4"/>
-        <v>50.958904109589042</v>
+        <v>84.93150684931507</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="2"/>
-        <v>66.246575342465761</v>
+        <v>110.41095890410959</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -2246,19 +2246,19 @@
       </c>
       <c r="H10" s="1">
         <f t="shared" si="3"/>
-        <v>15700</v>
+        <v>26166.666666666668</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="1"/>
-        <v>30.109589041095887</v>
+        <v>50.182648401826484</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="4"/>
-        <v>43.013698630136986</v>
+        <v>71.689497716894977</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="2"/>
-        <v>55.917808219178085</v>
+        <v>93.196347031963469</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -2286,19 +2286,19 @@
       </c>
       <c r="H11" s="1">
         <f t="shared" si="3"/>
-        <v>19200</v>
+        <v>32000</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="1"/>
-        <v>36.821917808219176</v>
+        <v>61.36986301369862</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="4"/>
-        <v>52.602739726027394</v>
+        <v>87.671232876712324</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="2"/>
-        <v>68.38356164383562</v>
+        <v>113.97260273972603</v>
       </c>
     </row>
   </sheetData>

--- a/BOP_realistic_instance_v2.xlsx
+++ b/BOP_realistic_instance_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emapi\PycharmProjects\wm-bilevel-opt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8417B9FF-E0EA-45B1-BBFF-5C2245891EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142C0CBC-5D44-4B9D-9C4F-256A8ED388D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8196" yWindow="1356" windowWidth="17280" windowHeight="8880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="client" sheetId="1" r:id="rId1"/>
@@ -496,12 +496,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -516,7 +522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -525,6 +531,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1854,7 +1861,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1925,24 +1932,24 @@
         <v>30.547945205479451</v>
       </c>
       <c r="H2" s="1">
-        <f>F2/3</f>
-        <v>3716.6666666666665</v>
+        <f>F2/5</f>
+        <v>2230</v>
       </c>
       <c r="I2" s="1">
         <f t="shared" ref="I2:I11" si="1">J2*0.7</f>
-        <v>7.1278538812785381</v>
+        <v>4.2767123287671236</v>
       </c>
       <c r="J2" s="1">
         <f>H2/365</f>
-        <v>10.182648401826484</v>
+        <v>6.1095890410958908</v>
       </c>
       <c r="K2" s="1">
         <f t="shared" ref="K2:K11" si="2">J2*1.3</f>
-        <v>13.237442922374429</v>
+        <v>7.9424657534246581</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1965,20 +1972,20 @@
         <v>41.095890410958901</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H11" si="3">F3/3</f>
-        <v>5000</v>
+        <f t="shared" ref="H3:H11" si="3">F3/5</f>
+        <v>3000</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" si="1"/>
-        <v>9.5890410958904102</v>
+        <v>5.7534246575342465</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" ref="J3:J11" si="4">H3/365</f>
-        <v>13.698630136986301</v>
+        <v>8.2191780821917817</v>
       </c>
       <c r="K3" s="1">
         <f t="shared" si="2"/>
-        <v>17.808219178082194</v>
+        <v>10.684931506849317</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -2006,19 +2013,19 @@
       </c>
       <c r="H4" s="1">
         <f t="shared" si="3"/>
-        <v>23333.333333333332</v>
+        <v>14000</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="1"/>
-        <v>44.74885844748858</v>
+        <v>26.849315068493148</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="4"/>
-        <v>63.926940639269404</v>
+        <v>38.356164383561641</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" si="2"/>
-        <v>83.105022831050235</v>
+        <v>49.863013698630134</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -2046,19 +2053,19 @@
       </c>
       <c r="H5" s="1">
         <f t="shared" si="3"/>
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="1"/>
-        <v>38.356164383561641</v>
+        <v>23.013698630136986</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="4"/>
-        <v>54.794520547945204</v>
+        <v>32.876712328767127</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="2"/>
-        <v>71.232876712328775</v>
+        <v>42.739726027397268</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -2086,23 +2093,23 @@
       </c>
       <c r="H6" s="1">
         <f t="shared" si="3"/>
-        <v>17000</v>
+        <v>10200</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="1"/>
-        <v>32.602739726027394</v>
+        <v>19.561643835616437</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="4"/>
-        <v>46.575342465753423</v>
+        <v>27.945205479452056</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="2"/>
-        <v>60.547945205479451</v>
+        <v>36.328767123287676</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2126,23 +2133,23 @@
       </c>
       <c r="H7" s="1">
         <f t="shared" si="3"/>
-        <v>28000</v>
+        <v>16800</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="1"/>
-        <v>53.698630136986296</v>
+        <v>32.219178082191782</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="4"/>
-        <v>76.712328767123282</v>
+        <v>46.027397260273972</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="2"/>
-        <v>99.726027397260268</v>
+        <v>59.835616438356162</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2166,19 +2173,19 @@
       </c>
       <c r="H8" s="1">
         <f t="shared" si="3"/>
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="1"/>
-        <v>28.767123287671229</v>
+        <v>17.260273972602739</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="4"/>
-        <v>41.095890410958901</v>
+        <v>24.657534246575342</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="2"/>
-        <v>53.42465753424657</v>
+        <v>32.054794520547944</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -2206,23 +2213,23 @@
       </c>
       <c r="H9" s="1">
         <f t="shared" si="3"/>
-        <v>31000</v>
+        <v>18600</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="1"/>
-        <v>59.452054794520542</v>
+        <v>35.671232876712324</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="4"/>
-        <v>84.93150684931507</v>
+        <v>50.958904109589042</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="2"/>
-        <v>110.41095890410959</v>
+        <v>66.246575342465761</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2246,23 +2253,23 @@
       </c>
       <c r="H10" s="1">
         <f t="shared" si="3"/>
-        <v>26166.666666666668</v>
+        <v>15700</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="1"/>
-        <v>50.182648401826484</v>
+        <v>30.109589041095887</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="4"/>
-        <v>71.689497716894977</v>
+        <v>43.013698630136986</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="2"/>
-        <v>93.196347031963469</v>
+        <v>55.917808219178085</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2286,19 +2293,19 @@
       </c>
       <c r="H11" s="1">
         <f t="shared" si="3"/>
-        <v>32000</v>
+        <v>19200</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="1"/>
-        <v>61.36986301369862</v>
+        <v>36.821917808219176</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="4"/>
-        <v>87.671232876712324</v>
+        <v>52.602739726027394</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="2"/>
-        <v>113.97260273972603</v>
+        <v>68.38356164383562</v>
       </c>
     </row>
   </sheetData>
